--- a/poster/PosterData.xlsx
+++ b/poster/PosterData.xlsx
@@ -275,6 +275,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="39227392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
@@ -364,21 +374,6 @@
           <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-1.5335891649872657E-3"/>
-                  <c:y val="-3.1677019666357567E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
@@ -500,6 +495,16 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
         <c:crossAx val="43196800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
